--- a/Docs/TM4C_controller_pin_specs.xlsx
+++ b/Docs/TM4C_controller_pin_specs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\GitHub\CU_PCB_6089-103\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013153D6-BAFF-4ED8-8D5B-7A5C1A4A623D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="27555" windowHeight="11535"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="7785" windowHeight="435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1081,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1203,6 +1209,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1250,7 +1259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,9 +1292,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1318,6 +1344,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1493,11 +1536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1735,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1709,7 +1752,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1726,7 +1769,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3226,7 +3269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>87</v>
       </c>
@@ -3759,7 +3802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>115</v>
       </c>
@@ -4034,12 +4077,15 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A9:F136">
+    <sortCondition ref="A9:A136"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4051,7 +4097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/TM4C_controller_pin_specs.xlsx
+++ b/Docs/TM4C_controller_pin_specs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\GitHub\CU_PCB_6089-103\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\hardware\CMS_Trigger\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013153D6-BAFF-4ED8-8D5B-7A5C1A4A623D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="7785" windowHeight="435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="7785" windowHeight="435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,13 +193,7 @@
     <t>PL1</t>
   </si>
   <si>
-    <t>TM4C_DIP_SW_1: Wired to position #4 of switch SW4, the KU15P DIP SWITCH</t>
-  </si>
-  <si>
     <t>PQ2</t>
-  </si>
-  <si>
-    <t>TM4C_DIP_SW_2: Wired to position #4 of switch SW5, the VU7P DIP SWITCH</t>
   </si>
   <si>
     <t>PK4</t>
@@ -1076,12 +1069,18 @@
   </si>
   <si>
     <t>GPIO port Q bit 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM4C_DIP_SW_2: Wired to position #4 of switch SW5, the VU7P DIP SWITCH. A HI level means that the VU7P should be powered; a LO level means that the VU7P should be left unpowered. The pullup on the switch is energized from the VCC_M3V3 source, so it is valid whenever the board has 12V supplied. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM4C_DIP_SW_1: Wired to position #4 of switch SW4, the KU15P DIP SWITCH. A HI level means that the KU15P should be powered; a LO level means that the KU15P should be left unpowered. The pullup on the switch is energized from the VCC_M3V3 source, so it is valid whenever the board has 12V supplied. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1292,23 +1291,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1344,23 +1326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1536,11 +1501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,25 +1521,25 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1602,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1611,10 +1576,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1622,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1631,10 +1596,10 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1642,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1651,10 +1616,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1662,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -1671,10 +1636,10 @@
         <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1682,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1691,10 +1656,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1702,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -1711,10 +1676,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1722,16 +1687,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1739,16 +1704,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1756,16 +1721,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1773,24 +1738,24 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -1799,10 +1764,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1810,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>9</v>
@@ -1819,10 +1784,10 @@
         <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1830,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -1839,10 +1804,10 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1850,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1859,10 +1824,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1870,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -1879,10 +1844,10 @@
         <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1890,16 +1855,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1907,16 +1872,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1924,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
@@ -1933,10 +1898,10 @@
         <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1944,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -1953,10 +1918,10 @@
         <v>38</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1964,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>9</v>
@@ -1973,10 +1938,10 @@
         <v>38</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1984,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -1993,10 +1958,10 @@
         <v>38</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>9</v>
@@ -2013,10 +1978,10 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,7 +1989,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>9</v>
@@ -2033,10 +1998,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,7 +2009,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
@@ -2053,10 +2018,10 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,7 +2029,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>9</v>
@@ -2073,10 +2038,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2084,16 +2049,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2101,7 +2066,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
@@ -2110,10 +2075,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2121,16 +2086,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,7 +2103,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>9</v>
@@ -2147,10 +2112,10 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,7 +2123,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>9</v>
@@ -2167,10 +2132,10 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>9</v>
@@ -2187,10 +2152,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,7 +2163,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>9</v>
@@ -2207,10 +2172,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>6</v>
@@ -2307,10 +2272,10 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>6</v>
@@ -2327,10 +2292,10 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2338,16 +2303,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2355,19 +2320,19 @@
         <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,19 +2340,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,7 +2360,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>6</v>
@@ -2404,10 +2369,10 @@
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,7 +2380,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>6</v>
@@ -2424,10 +2389,10 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,7 +2400,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>6</v>
@@ -2444,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,7 +2420,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>6</v>
@@ -2464,10 +2429,10 @@
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -2475,19 +2440,19 @@
         <v>46</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2495,16 +2460,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2512,16 +2477,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2529,19 +2494,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,19 +2514,19 @@
         <v>50</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2569,19 +2534,19 @@
         <v>51</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,19 +2554,19 @@
         <v>52</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2609,19 +2574,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2629,19 +2594,19 @@
         <v>54</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2649,19 +2614,19 @@
         <v>55</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,19 +2634,19 @@
         <v>56</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,7 +2654,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -2698,10 +2663,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,7 +2674,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>6</v>
@@ -2718,10 +2683,10 @@
         <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,7 +2694,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -2738,10 +2703,10 @@
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,7 +2714,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>9</v>
@@ -2758,10 +2723,10 @@
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,7 +2734,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>9</v>
@@ -2778,10 +2743,10 @@
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2789,7 +2754,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>6</v>
@@ -2798,10 +2763,10 @@
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2809,16 +2774,16 @@
         <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2906,16 +2871,16 @@
         <v>68</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2923,16 +2888,16 @@
         <v>69</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -2960,19 +2925,19 @@
         <v>71</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2980,19 +2945,19 @@
         <v>72</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3000,19 +2965,19 @@
         <v>73</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3020,7 +2985,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>9</v>
@@ -3029,10 +2994,10 @@
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3040,7 +3005,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>9</v>
@@ -3049,10 +3014,10 @@
         <v>7</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,7 +3025,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>9</v>
@@ -3069,10 +3034,10 @@
         <v>7</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,7 +3045,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>9</v>
@@ -3089,10 +3054,10 @@
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3100,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>9</v>
@@ -3109,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3120,16 +3085,16 @@
         <v>79</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3137,16 +3102,16 @@
         <v>80</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3154,7 +3119,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>6</v>
@@ -3163,13 +3128,13 @@
         <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>82</v>
       </c>
@@ -3183,10 +3148,10 @@
         <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,7 +3159,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>6</v>
@@ -3203,10 +3168,10 @@
         <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,7 +3179,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>6</v>
@@ -3223,10 +3188,10 @@
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>6</v>
@@ -3243,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,7 +3219,7 @@
         <v>86</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>6</v>
@@ -3263,10 +3228,10 @@
         <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -3274,16 +3239,16 @@
         <v>87</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3331,16 +3296,16 @@
         <v>90</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3348,19 +3313,19 @@
         <v>91</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E99" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3368,19 +3333,19 @@
         <v>92</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3388,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>9</v>
@@ -3397,10 +3362,10 @@
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3408,7 +3373,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>6</v>
@@ -3417,10 +3382,10 @@
         <v>7</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,16 +3501,16 @@
         <v>101</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,7 +3518,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>6</v>
@@ -3562,10 +3527,10 @@
         <v>7</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,7 +3538,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>6</v>
@@ -3582,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3593,19 +3558,19 @@
         <v>104</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3613,19 +3578,19 @@
         <v>105</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3633,7 +3598,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>6</v>
@@ -3642,10 +3607,10 @@
         <v>7</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,7 +3618,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>6</v>
@@ -3662,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3673,7 +3638,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>6</v>
@@ -3682,10 +3647,10 @@
         <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,7 +3658,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>6</v>
@@ -3702,10 +3667,10 @@
         <v>7</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3713,7 +3678,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>6</v>
@@ -3722,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,7 +3698,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>6</v>
@@ -3742,10 +3707,10 @@
         <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3753,7 +3718,7 @@
         <v>112</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>6</v>
@@ -3762,10 +3727,10 @@
         <v>7</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3773,16 +3738,16 @@
         <v>113</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3790,16 +3755,16 @@
         <v>114</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -3807,16 +3772,16 @@
         <v>115</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3824,7 +3789,7 @@
         <v>116</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>6</v>
@@ -3833,10 +3798,10 @@
         <v>7</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3844,7 +3809,7 @@
         <v>117</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>6</v>
@@ -3853,10 +3818,10 @@
         <v>7</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3864,7 +3829,7 @@
         <v>118</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>6</v>
@@ -3873,10 +3838,10 @@
         <v>7</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3884,7 +3849,7 @@
         <v>119</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>9</v>
@@ -3893,10 +3858,10 @@
         <v>7</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3904,7 +3869,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>9</v>
@@ -3913,10 +3878,10 @@
         <v>38</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3924,7 +3889,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>9</v>
@@ -3933,10 +3898,10 @@
         <v>38</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3944,16 +3909,16 @@
         <v>122</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="F130" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3961,7 +3926,7 @@
         <v>123</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>9</v>
@@ -3970,10 +3935,10 @@
         <v>38</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3981,7 +3946,7 @@
         <v>124</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>9</v>
@@ -3990,10 +3955,10 @@
         <v>38</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4001,7 +3966,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>9</v>
@@ -4010,10 +3975,10 @@
         <v>38</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4021,7 +3986,7 @@
         <v>126</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>9</v>
@@ -4030,10 +3995,10 @@
         <v>38</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4041,7 +4006,7 @@
         <v>127</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>9</v>
@@ -4050,10 +4015,10 @@
         <v>38</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4061,7 +4026,7 @@
         <v>128</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>9</v>
@@ -4070,10 +4035,10 @@
         <v>38</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4085,7 +4050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4097,7 +4062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/TM4C_controller_pin_specs.xlsx
+++ b/Docs/TM4C_controller_pin_specs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\hardware\CMS_Trigger\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wittich/src/CU_PCB_6089-103/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D815DC-4857-5547-8023-82C6FC82B00B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="7785" windowHeight="435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="351">
   <si>
     <t>Pin Number</t>
   </si>
@@ -1076,11 +1077,26 @@
   <si>
     <t xml:space="preserve">TM4C_DIP_SW_1: Wired to position #4 of switch SW4, the KU15P DIP SWITCH. A HI level means that the KU15P should be powered; a LO level means that the KU15P should be left unpowered. The pullup on the switch is energized from the VCC_M3V3 source, so it is valid whenever the board has 12V supplied. </t>
   </si>
+  <si>
+    <t>DO NOT PROGRAM</t>
+  </si>
+  <si>
+    <t>JTAG_TDO</t>
+  </si>
+  <si>
+    <t>JTAG_TDI</t>
+  </si>
+  <si>
+    <t>JTAG_TMS</t>
+  </si>
+  <si>
+    <t>JTAG_TCK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1291,6 +1307,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1326,6 +1359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1501,48 +1551,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="34" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1582,7 +1632,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -1602,7 +1652,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -1622,7 +1672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>5</v>
       </c>
@@ -1662,7 +1712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -1682,7 +1732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -1699,7 +1749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -1716,7 +1766,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>9</v>
       </c>
@@ -1733,7 +1783,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -1750,7 +1800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>11</v>
       </c>
@@ -1770,7 +1820,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -1790,7 +1840,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -1810,7 +1860,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -1830,7 +1880,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -1850,7 +1900,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>16</v>
       </c>
@@ -1867,7 +1917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>17</v>
       </c>
@@ -1884,7 +1934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -1904,7 +1954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -1924,7 +1974,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -1944,7 +1994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -1964,7 +2014,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1984,7 +2034,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -2004,7 +2054,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -2024,7 +2074,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>25</v>
       </c>
@@ -2044,7 +2094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>26</v>
       </c>
@@ -2061,7 +2111,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>27</v>
       </c>
@@ -2081,7 +2131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>28</v>
       </c>
@@ -2098,7 +2148,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>29</v>
       </c>
@@ -2118,7 +2168,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>30</v>
       </c>
@@ -2138,7 +2188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>31</v>
       </c>
@@ -2158,7 +2208,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>32</v>
       </c>
@@ -2178,7 +2228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>33</v>
       </c>
@@ -2198,7 +2248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>34</v>
       </c>
@@ -2218,7 +2268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>35</v>
       </c>
@@ -2238,7 +2288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>36</v>
       </c>
@@ -2258,7 +2308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>37</v>
       </c>
@@ -2278,7 +2328,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>38</v>
       </c>
@@ -2298,7 +2348,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>39</v>
       </c>
@@ -2315,7 +2365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>40</v>
       </c>
@@ -2335,7 +2385,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>41</v>
       </c>
@@ -2355,7 +2405,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>42</v>
       </c>
@@ -2375,7 +2425,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>43</v>
       </c>
@@ -2395,7 +2445,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>44</v>
       </c>
@@ -2415,7 +2465,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>45</v>
       </c>
@@ -2435,7 +2485,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>46</v>
       </c>
@@ -2455,7 +2505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>47</v>
       </c>
@@ -2472,7 +2522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>48</v>
       </c>
@@ -2489,7 +2539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>49</v>
       </c>
@@ -2509,7 +2559,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>50</v>
       </c>
@@ -2529,7 +2579,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>51</v>
       </c>
@@ -2549,7 +2599,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>52</v>
       </c>
@@ -2569,7 +2619,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>53</v>
       </c>
@@ -2589,7 +2639,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>54</v>
       </c>
@@ -2609,7 +2659,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>55</v>
       </c>
@@ -2629,7 +2679,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>56</v>
       </c>
@@ -2649,7 +2699,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>57</v>
       </c>
@@ -2669,7 +2719,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>58</v>
       </c>
@@ -2689,7 +2739,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>59</v>
       </c>
@@ -2709,7 +2759,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>60</v>
       </c>
@@ -2729,7 +2779,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>61</v>
       </c>
@@ -2749,7 +2799,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>62</v>
       </c>
@@ -2769,7 +2819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>63</v>
       </c>
@@ -2786,7 +2836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>64</v>
       </c>
@@ -2806,7 +2856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>65</v>
       </c>
@@ -2826,7 +2876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>66</v>
       </c>
@@ -2846,7 +2896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>67</v>
       </c>
@@ -2866,7 +2916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>68</v>
       </c>
@@ -2883,7 +2933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>69</v>
       </c>
@@ -2900,7 +2950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>70</v>
       </c>
@@ -2920,7 +2970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>71</v>
       </c>
@@ -2940,7 +2990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>72</v>
       </c>
@@ -2960,7 +3010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>73</v>
       </c>
@@ -2980,7 +3030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>74</v>
       </c>
@@ -3000,7 +3050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>75</v>
       </c>
@@ -3020,7 +3070,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>76</v>
       </c>
@@ -3040,7 +3090,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>77</v>
       </c>
@@ -3060,7 +3110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>78</v>
       </c>
@@ -3080,7 +3130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>79</v>
       </c>
@@ -3097,7 +3147,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>80</v>
       </c>
@@ -3114,7 +3164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>81</v>
       </c>
@@ -3134,7 +3184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>82</v>
       </c>
@@ -3154,7 +3204,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>83</v>
       </c>
@@ -3174,7 +3224,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>84</v>
       </c>
@@ -3194,7 +3244,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>85</v>
       </c>
@@ -3214,7 +3264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>86</v>
       </c>
@@ -3234,7 +3284,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>87</v>
       </c>
@@ -3251,7 +3301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>88</v>
       </c>
@@ -3271,7 +3321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>89</v>
       </c>
@@ -3291,7 +3341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>90</v>
       </c>
@@ -3308,7 +3358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>91</v>
       </c>
@@ -3328,7 +3378,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>92</v>
       </c>
@@ -3348,7 +3398,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>93</v>
       </c>
@@ -3368,7 +3418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>94</v>
       </c>
@@ -3388,7 +3438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>95</v>
       </c>
@@ -3408,7 +3458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>96</v>
       </c>
@@ -3428,7 +3478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>97</v>
       </c>
@@ -3444,8 +3494,14 @@
       <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>98</v>
       </c>
@@ -3461,8 +3517,14 @@
       <c r="E106" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>99</v>
       </c>
@@ -3478,8 +3540,14 @@
       <c r="E107" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>100</v>
       </c>
@@ -3495,8 +3563,14 @@
       <c r="E108" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F108" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
         <v>101</v>
       </c>
@@ -3513,7 +3587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>102</v>
       </c>
@@ -3533,7 +3607,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>103</v>
       </c>
@@ -3553,7 +3627,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>104</v>
       </c>
@@ -3573,7 +3647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>105</v>
       </c>
@@ -3593,7 +3667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>106</v>
       </c>
@@ -3613,7 +3687,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>107</v>
       </c>
@@ -3633,7 +3707,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>108</v>
       </c>
@@ -3653,7 +3727,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>109</v>
       </c>
@@ -3673,7 +3747,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>110</v>
       </c>
@@ -3693,7 +3767,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>111</v>
       </c>
@@ -3713,7 +3787,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>112</v>
       </c>
@@ -3733,7 +3807,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="10">
         <v>113</v>
       </c>
@@ -3750,7 +3824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
         <v>114</v>
       </c>
@@ -3767,7 +3841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A123" s="10">
         <v>115</v>
       </c>
@@ -3784,7 +3858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>116</v>
       </c>
@@ -3804,7 +3878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>117</v>
       </c>
@@ -3824,7 +3898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>118</v>
       </c>
@@ -3844,7 +3918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>119</v>
       </c>
@@ -3864,7 +3938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>120</v>
       </c>
@@ -3884,7 +3958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>121</v>
       </c>
@@ -3904,7 +3978,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="10">
         <v>122</v>
       </c>
@@ -3921,7 +3995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>123</v>
       </c>
@@ -3941,7 +4015,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>124</v>
       </c>
@@ -3961,7 +4035,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>125</v>
       </c>
@@ -3981,7 +4055,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>126</v>
       </c>
@@ -4001,7 +4075,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>127</v>
       </c>
@@ -4021,7 +4095,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>128</v>
       </c>
@@ -4042,7 +4116,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:F136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:F136">
     <sortCondition ref="A9:A136"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4050,24 +4124,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/TM4C_controller_pin_specs.xlsx
+++ b/Docs/TM4C_controller_pin_specs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wittich/src/CU_PCB_6089-103/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D815DC-4857-5547-8023-82C6FC82B00B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65FC92-EFF0-4745-AE4E-07F53BA837BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>I/O</t>
   </si>
   <si>
-    <t>BLADE_ZYNQ_GPIO0: The use and direction of this pin is currently undefined. Configure it as an input.</t>
-  </si>
-  <si>
     <t>BLADE_ZYNQ_GPIO1: The use and direction of this pin is currently undefined. Configure it as an input.</t>
   </si>
   <si>
@@ -1091,6 +1088,9 @@
   </si>
   <si>
     <t>JTAG_TCK</t>
+  </si>
+  <si>
+    <t>BLADE_POWER_EN: this signal is used by the ZYNQ to signal to the MCU to enable or disable blade power on the CM. Configure it as an input.</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1571,25 +1571,25 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1626,10 +1626,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1646,10 +1646,10 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1666,10 +1666,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -1686,10 +1686,10 @@
         <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1706,10 +1706,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1717,19 +1717,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1737,16 +1737,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1754,16 +1754,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1771,16 +1771,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1788,16 +1788,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -1814,10 +1814,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1825,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>9</v>
@@ -1834,10 +1834,10 @@
         <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -1854,10 +1854,10 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1874,10 +1874,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -1894,10 +1894,10 @@
         <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1905,16 +1905,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1922,16 +1922,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1939,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
@@ -1948,10 +1948,10 @@
         <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -1968,10 +1968,10 @@
         <v>38</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>9</v>
@@ -1988,10 +1988,10 @@
         <v>38</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -2008,10 +2008,10 @@
         <v>38</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2019,19 +2019,19 @@
         <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>9</v>
@@ -2048,10 +2048,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2059,19 +2059,19 @@
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2079,19 +2079,19 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2099,16 +2099,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
@@ -2125,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2136,16 +2136,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2153,19 +2153,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2173,19 +2173,19 @@
         <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2193,19 +2193,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2213,19 +2213,19 @@
         <v>32</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2313,7 +2313,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>6</v>
@@ -2322,10 +2322,10 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>6</v>
@@ -2342,10 +2342,10 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2353,16 +2353,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2370,19 +2370,19 @@
         <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2390,19 +2390,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>6</v>
@@ -2419,10 +2419,10 @@
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>6</v>
@@ -2439,10 +2439,10 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2450,7 +2450,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>6</v>
@@ -2459,10 +2459,10 @@
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>6</v>
@@ -2479,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2490,7 +2490,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>61</v>
@@ -2499,10 +2499,10 @@
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2510,16 +2510,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2527,16 +2527,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2544,19 +2544,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2564,19 +2564,19 @@
         <v>50</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2584,19 +2584,19 @@
         <v>51</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2604,19 +2604,19 @@
         <v>52</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2624,19 +2624,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2644,19 +2644,19 @@
         <v>54</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2664,19 +2664,19 @@
         <v>55</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2684,19 +2684,19 @@
         <v>56</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -2713,10 +2713,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>6</v>
@@ -2733,10 +2733,10 @@
         <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2764,19 +2764,19 @@
         <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2784,19 +2784,19 @@
         <v>61</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>57</v>
@@ -2824,16 +2824,16 @@
         <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="E71" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2921,16 +2921,16 @@
         <v>68</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2938,16 +2938,16 @@
         <v>69</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -2970,7 +2970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>71</v>
       </c>
@@ -2984,10 +2984,10 @@
         <v>7</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3004,10 +3004,10 @@
         <v>7</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3024,10 +3024,10 @@
         <v>7</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3035,19 +3035,19 @@
         <v>74</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3055,19 +3055,19 @@
         <v>75</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3075,19 +3075,19 @@
         <v>76</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3095,19 +3095,19 @@
         <v>77</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3115,19 +3115,19 @@
         <v>78</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3135,16 +3135,16 @@
         <v>79</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="E87" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F88" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3169,7 +3169,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>6</v>
@@ -3178,10 +3178,10 @@
         <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3198,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>6</v>
@@ -3218,10 +3218,10 @@
         <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3229,7 +3229,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>6</v>
@@ -3238,10 +3238,10 @@
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>6</v>
@@ -3258,10 +3258,10 @@
         <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3269,7 +3269,7 @@
         <v>86</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>6</v>
@@ -3278,10 +3278,10 @@
         <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3289,16 +3289,16 @@
         <v>87</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3346,16 +3346,16 @@
         <v>90</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="E98" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -3363,19 +3363,19 @@
         <v>91</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3383,19 +3383,19 @@
         <v>92</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3403,7 +3403,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>9</v>
@@ -3412,10 +3412,10 @@
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3423,7 +3423,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>6</v>
@@ -3432,10 +3432,10 @@
         <v>7</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3495,10 +3495,10 @@
         <v>11</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -3515,13 +3515,13 @@
         <v>7</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -3541,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -3564,10 +3564,10 @@
         <v>14</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -3575,16 +3575,16 @@
         <v>101</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="E109" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>6</v>
@@ -3601,10 +3601,10 @@
         <v>7</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>6</v>
@@ -3621,10 +3621,10 @@
         <v>7</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>61</v>
@@ -3641,10 +3641,10 @@
         <v>7</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3652,7 +3652,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>61</v>
@@ -3661,10 +3661,10 @@
         <v>7</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3672,7 +3672,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>6</v>
@@ -3681,10 +3681,10 @@
         <v>7</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3692,7 +3692,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>6</v>
@@ -3701,10 +3701,10 @@
         <v>7</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>6</v>
@@ -3721,10 +3721,10 @@
         <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>6</v>
@@ -3741,10 +3741,10 @@
         <v>7</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>6</v>
@@ -3761,10 +3761,10 @@
         <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>6</v>
@@ -3781,10 +3781,10 @@
         <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>112</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>6</v>
@@ -3801,10 +3801,10 @@
         <v>7</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3812,16 +3812,16 @@
         <v>113</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="E121" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3829,16 +3829,16 @@
         <v>114</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F122" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3846,16 +3846,16 @@
         <v>115</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F123" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>116</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>6</v>
@@ -3872,10 +3872,10 @@
         <v>7</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3883,7 +3883,7 @@
         <v>117</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>6</v>
@@ -3892,10 +3892,10 @@
         <v>7</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>118</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>6</v>
@@ -3912,10 +3912,10 @@
         <v>7</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3923,19 +3923,19 @@
         <v>119</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>9</v>
@@ -3952,10 +3952,10 @@
         <v>38</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>9</v>
@@ -3972,10 +3972,10 @@
         <v>38</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3983,16 +3983,16 @@
         <v>122</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="E130" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4000,7 +4000,7 @@
         <v>123</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>9</v>
@@ -4009,10 +4009,10 @@
         <v>38</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4020,7 +4020,7 @@
         <v>124</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>9</v>
@@ -4029,10 +4029,10 @@
         <v>38</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4040,7 +4040,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>9</v>
@@ -4049,10 +4049,10 @@
         <v>38</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
         <v>126</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>9</v>
@@ -4069,10 +4069,10 @@
         <v>38</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4080,7 +4080,7 @@
         <v>127</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>9</v>
@@ -4089,10 +4089,10 @@
         <v>38</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>128</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>9</v>
@@ -4109,10 +4109,10 @@
         <v>38</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/TM4C_controller_pin_specs.xlsx
+++ b/Docs/TM4C_controller_pin_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wittich/src/CU_PCB_6089-103/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65FC92-EFF0-4745-AE4E-07F53BA837BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C8B218-AFC6-D44A-9387-6915309A96A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1090,7 +1098,7 @@
     <t>JTAG_TCK</t>
   </si>
   <si>
-    <t>BLADE_POWER_EN: this signal is used by the ZYNQ to signal to the MCU to enable or disable blade power on the CM. Configure it as an input.</t>
+    <t>BLADE_POWER_EN: this signal is used by the ZYNQ to signal to the MCU to enable or disable blade power on the CM. Configure it as an input with 2 mA internal pull-up.</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
